--- a/excel/урок условное форматирование.xlsx
+++ b/excel/урок условное форматирование.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="10635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -177,22 +177,19 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -214,47 +211,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -265,9 +221,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -552,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,441 +523,441 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f ca="1">RANDBETWEEN(10000,50000)</f>
-        <v>45590</v>
-      </c>
-      <c r="E4" s="2">
+        <v>38160</v>
+      </c>
+      <c r="E4" s="1">
         <v>16297</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>13994</v>
-      </c>
-      <c r="J4" s="2">
+        <v>15060</v>
+      </c>
+      <c r="J4" s="1">
         <v>16297</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>16792</v>
-      </c>
-      <c r="O4" s="2">
+        <v>13939</v>
+      </c>
+      <c r="O4" s="1">
         <v>16297</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" ref="D5:D13" ca="1" si="0">RANDBETWEEN(10000,50000)</f>
-        <v>27356</v>
-      </c>
-      <c r="E5" s="2">
+        <v>31427</v>
+      </c>
+      <c r="E5" s="1">
         <v>20756</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f t="shared" ref="I5:I13" ca="1" si="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>15106</v>
-      </c>
-      <c r="J5" s="2">
+        <v>22681</v>
+      </c>
+      <c r="J5" s="1">
         <v>20756</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <f t="shared" ref="N5:N9" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
-        <v>16244</v>
-      </c>
-      <c r="O5" s="2">
+        <v>10938</v>
+      </c>
+      <c r="O5" s="1">
         <v>20756</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37397</v>
-      </c>
-      <c r="E6" s="2">
+        <v>16583</v>
+      </c>
+      <c r="E6" s="1">
         <v>19263</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17905</v>
-      </c>
-      <c r="J6" s="2">
+        <v>15829</v>
+      </c>
+      <c r="J6" s="1">
         <v>19263</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18587</v>
-      </c>
-      <c r="O6" s="2">
+        <v>21243</v>
+      </c>
+      <c r="O6" s="1">
         <v>19263</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33992</v>
-      </c>
-      <c r="E7" s="2">
+        <v>28332</v>
+      </c>
+      <c r="E7" s="1">
         <v>12306</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12518</v>
-      </c>
-      <c r="J7" s="2">
+        <v>18253</v>
+      </c>
+      <c r="J7" s="1">
         <v>12306</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
+        <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
+        <v>18757</v>
+      </c>
+      <c r="O7" s="1">
+        <v>52306</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>47290</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11131</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>20555</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11131</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>20761</v>
-      </c>
-      <c r="O7" s="2">
-        <v>12306</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
+        <v>16252</v>
+      </c>
+      <c r="O8" s="1">
+        <v>11131</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37128</v>
-      </c>
-      <c r="E8" s="2">
-        <v>11131</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2">
+        <v>34603</v>
+      </c>
+      <c r="E9" s="1">
+        <v>24518</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>13746</v>
-      </c>
-      <c r="J8" s="2">
-        <v>11131</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="2">
+        <v>24501</v>
+      </c>
+      <c r="J9" s="1">
+        <v>24518</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>20244</v>
-      </c>
-      <c r="O8" s="2">
-        <v>11131</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
+        <v>18333</v>
+      </c>
+      <c r="O9" s="1">
+        <v>24518</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38282</v>
-      </c>
-      <c r="E9" s="2">
-        <v>24518</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="2">
+        <v>37979</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10295</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15541</v>
-      </c>
-      <c r="J9" s="2">
-        <v>24518</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>15619</v>
-      </c>
-      <c r="O9" s="2">
-        <v>24518</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2">
+        <v>17038</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10295</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13642</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10295</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2">
+        <v>31410</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14905</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17525</v>
-      </c>
-      <c r="J10" s="2">
-        <v>10295</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2">
+        <v>20738</v>
+      </c>
+      <c r="J11" s="1">
+        <v>14905</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32798</v>
-      </c>
-      <c r="E11" s="2">
-        <v>14905</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2">
+        <v>26832</v>
+      </c>
+      <c r="E12" s="1">
+        <v>19042</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>11405</v>
-      </c>
-      <c r="J11" s="2">
-        <v>14905</v>
-      </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2">
+        <v>11391</v>
+      </c>
+      <c r="J12" s="1">
+        <v>19042</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43210</v>
-      </c>
-      <c r="E12" s="2">
-        <v>19042</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="2">
+        <v>15538</v>
+      </c>
+      <c r="E13" s="1">
+        <v>23378</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20539</v>
-      </c>
-      <c r="J12" s="2">
-        <v>19042</v>
-      </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>49154</v>
-      </c>
-      <c r="E13" s="2">
+        <v>22531</v>
+      </c>
+      <c r="J13" s="1">
         <v>23378</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>19133</v>
-      </c>
-      <c r="J13" s="2">
-        <v>23378</v>
-      </c>
     </row>
     <row r="19" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>4</v>
-      </c>
-      <c r="H20" s="2">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>17</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <f t="shared" ref="G21:H29" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
-        <v>8</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>12</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>6</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+      <c r="G27" s="1">
+        <f ca="1">INT(RANDBETWEEN(2,20))</f>
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>13</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>14</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+      <c r="H29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +968,115 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
+  <conditionalFormatting sqref="D4:D13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{619CF28C-5904-472A-B655-3FA948FCC09C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E13">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DEF755ED-04AA-42AD-8C6D-4F88B723E468}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N9">
+    <cfRule type="iconSet" priority="4">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O9">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="5Quarters">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C29">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G29">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{619CF28C-5904-472A-B655-3FA948FCC09C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D4:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DEF755ED-04AA-42AD-8C6D-4F88B723E468}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E4:E13</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1023,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,11 +1410,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B66">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>OR(B4 = "суббота",B4="воскресение")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>B4="Понедельник"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula xml:space="preserve"> B4 = "Среда"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/урок условное форматирование.xlsx
+++ b/excel/урок условное форматирование.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\teacher\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="10635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14472" windowHeight="10632" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,19 +195,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="7" tint="0.79998168889431442"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -505,24 +506,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,13 +540,13 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1">
         <f ca="1">RANDBETWEEN(10000,50000)</f>
-        <v>38160</v>
+        <v>14660</v>
       </c>
       <c r="E4" s="1">
         <v>16297</v>
@@ -555,7 +556,7 @@
       </c>
       <c r="I4" s="1">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>15060</v>
+        <v>23934</v>
       </c>
       <c r="J4" s="1">
         <v>16297</v>
@@ -565,19 +566,19 @@
       </c>
       <c r="N4" s="1">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>13939</v>
+        <v>15798</v>
       </c>
       <c r="O4" s="1">
         <v>16297</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D13" ca="1" si="0">RANDBETWEEN(10000,50000)</f>
-        <v>31427</v>
+        <v>34817</v>
       </c>
       <c r="E5" s="1">
         <v>20756</v>
@@ -587,7 +588,7 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I13" ca="1" si="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>22681</v>
+        <v>17571</v>
       </c>
       <c r="J5" s="1">
         <v>20756</v>
@@ -597,19 +598,19 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5:N9" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
-        <v>10938</v>
+        <v>21195</v>
       </c>
       <c r="O5" s="1">
         <v>20756</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16583</v>
+        <v>17881</v>
       </c>
       <c r="E6" s="1">
         <v>19263</v>
@@ -619,7 +620,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15829</v>
+        <v>14577</v>
       </c>
       <c r="J6" s="1">
         <v>19263</v>
@@ -629,19 +630,19 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21243</v>
+        <v>12747</v>
       </c>
       <c r="O6" s="1">
         <v>19263</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28332</v>
+        <v>27094</v>
       </c>
       <c r="E7" s="1">
         <v>12306</v>
@@ -651,7 +652,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>18253</v>
+        <v>16443</v>
       </c>
       <c r="J7" s="1">
         <v>12306</v>
@@ -661,19 +662,19 @@
       </c>
       <c r="N7" s="1">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>18757</v>
+        <v>21884</v>
       </c>
       <c r="O7" s="1">
         <v>52306</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>47290</v>
+        <v>41748</v>
       </c>
       <c r="E8" s="1">
         <v>11131</v>
@@ -683,7 +684,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20555</v>
+        <v>18790</v>
       </c>
       <c r="J8" s="1">
         <v>11131</v>
@@ -693,19 +694,19 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16252</v>
+        <v>21818</v>
       </c>
       <c r="O8" s="1">
         <v>11131</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>34603</v>
+        <v>18206</v>
       </c>
       <c r="E9" s="1">
         <v>24518</v>
@@ -715,7 +716,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>24501</v>
+        <v>13021</v>
       </c>
       <c r="J9" s="1">
         <v>24518</v>
@@ -725,19 +726,19 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18333</v>
+        <v>14259</v>
       </c>
       <c r="O9" s="1">
         <v>24518</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37979</v>
+        <v>33812</v>
       </c>
       <c r="E10" s="1">
         <v>10295</v>
@@ -747,19 +748,19 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17038</v>
+        <v>13230</v>
       </c>
       <c r="J10" s="1">
         <v>10295</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31410</v>
+        <v>45583</v>
       </c>
       <c r="E11" s="1">
         <v>14905</v>
@@ -769,19 +770,19 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20738</v>
+        <v>23763</v>
       </c>
       <c r="J11" s="1">
         <v>14905</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26832</v>
+        <v>22708</v>
       </c>
       <c r="E12" s="1">
         <v>19042</v>
@@ -791,19 +792,19 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>11391</v>
+        <v>13421</v>
       </c>
       <c r="J12" s="1">
         <v>19042</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15538</v>
+        <v>47020</v>
       </c>
       <c r="E13" s="1">
         <v>23378</v>
@@ -813,13 +814,13 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22531</v>
+        <v>21026</v>
       </c>
       <c r="J13" s="1">
         <v>23378</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" ht="18" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
@@ -830,98 +831,98 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>6</v>
       </c>
       <c r="G20" s="1">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>17</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:H29" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>12</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>4</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>4</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>6</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>5</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>9</v>
       </c>
@@ -931,33 +932,33 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>13</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>14</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1084,336 +1085,336 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B66">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>OR(B4 = "суббота",B4="воскресение")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>B4="Понедельник"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="1">

--- a/excel/урок условное форматирование.xlsx
+++ b/excel/урок условное форматирование.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\teacher\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lot-w\Documents\lot\teacher\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14472" windowHeight="10632" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14472" windowHeight="10632"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
   <si>
     <t>Гистограммы</t>
   </si>
@@ -88,9 +87,6 @@
     <t>Владивосток</t>
   </si>
   <si>
-    <t>Парные</t>
-  </si>
-  <si>
     <t>Понедельник</t>
   </si>
   <si>
@@ -110,6 +106,9 @@
   </si>
   <si>
     <t>Воскресение</t>
+  </si>
+  <si>
+    <t>Текст содержит</t>
   </si>
 </sst>
 </file>
@@ -504,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:O29"/>
+  <dimension ref="C3:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +522,7 @@
     <col min="18" max="18" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:18" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,14 +538,18 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1">
         <f ca="1">RANDBETWEEN(10000,50000)</f>
-        <v>14660</v>
+        <v>45425</v>
       </c>
       <c r="E4" s="1">
         <v>16297</v>
@@ -555,8 +558,8 @@
         <v>4</v>
       </c>
       <c r="I4" s="1">
-        <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>23934</v>
+        <f t="shared" ref="I4:I5" ca="1" si="0">RANDBETWEEN(10000,25000)</f>
+        <v>24220</v>
       </c>
       <c r="J4" s="1">
         <v>16297</v>
@@ -566,19 +569,27 @@
       </c>
       <c r="N4" s="1">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>15798</v>
+        <v>24299</v>
       </c>
       <c r="O4" s="1">
         <v>16297</v>
       </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1">
+        <f ca="1">INT(RANDBETWEEN(2,20))</f>
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <f ca="1">INT(RANDBETWEEN(2,20))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D13" ca="1" si="0">RANDBETWEEN(10000,50000)</f>
-        <v>34817</v>
+        <f t="shared" ref="D5:D13" ca="1" si="1">RANDBETWEEN(10000,50000)</f>
+        <v>41937</v>
       </c>
       <c r="E5" s="1">
         <v>20756</v>
@@ -587,8 +598,8 @@
         <v>6</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I13" ca="1" si="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>17571</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24680</v>
       </c>
       <c r="J5" s="1">
         <v>20756</v>
@@ -598,19 +609,27 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5:N9" ca="1" si="2">INT(RANDBETWEEN(10000,25000))</f>
-        <v>21195</v>
+        <v>19203</v>
       </c>
       <c r="O5" s="1">
         <v>20756</v>
       </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:R13" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>17881</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>36840</v>
       </c>
       <c r="E6" s="1">
         <v>19263</v>
@@ -619,8 +638,8 @@
         <v>8</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14577</v>
+        <f ca="1">RANDBETWEEN(10000,25000)</f>
+        <v>21349</v>
       </c>
       <c r="J6" s="1">
         <v>19263</v>
@@ -630,19 +649,27 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>12747</v>
+        <v>23002</v>
       </c>
       <c r="O6" s="1">
         <v>19263</v>
       </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>27094</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47452</v>
       </c>
       <c r="E7" s="1">
         <v>12306</v>
@@ -651,8 +678,8 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16443</v>
+        <f t="shared" ref="I7:I13" ca="1" si="4">RANDBETWEEN(10000,25000)</f>
+        <v>12413</v>
       </c>
       <c r="J7" s="1">
         <v>12306</v>
@@ -662,19 +689,27 @@
       </c>
       <c r="N7" s="1">
         <f ca="1">INT(RANDBETWEEN(10000,25000))</f>
-        <v>21884</v>
+        <v>20673</v>
       </c>
       <c r="O7" s="1">
         <v>52306</v>
       </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>41748</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32053</v>
       </c>
       <c r="E8" s="1">
         <v>11131</v>
@@ -683,8 +718,8 @@
         <v>12</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>18790</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>20172</v>
       </c>
       <c r="J8" s="1">
         <v>11131</v>
@@ -694,19 +729,27 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21818</v>
+        <v>21488</v>
       </c>
       <c r="O8" s="1">
         <v>11131</v>
       </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>18206</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>21996</v>
       </c>
       <c r="E9" s="1">
         <v>24518</v>
@@ -715,8 +758,8 @@
         <v>14</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13021</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18973</v>
       </c>
       <c r="J9" s="1">
         <v>24518</v>
@@ -726,19 +769,27 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14259</v>
+        <v>14040</v>
       </c>
       <c r="O9" s="1">
         <v>24518</v>
       </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>33812</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43826</v>
       </c>
       <c r="E10" s="1">
         <v>10295</v>
@@ -747,20 +798,28 @@
         <v>16</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13230</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10306</v>
       </c>
       <c r="J10" s="1">
         <v>10295</v>
       </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45583</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12553</v>
       </c>
       <c r="E11" s="1">
         <v>14905</v>
@@ -769,20 +828,28 @@
         <v>17</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23763</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12860</v>
       </c>
       <c r="J11" s="1">
         <v>14905</v>
       </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1">
+        <f ca="1">INT(RANDBETWEEN(2,20))</f>
+        <v>14</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>22708</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10387</v>
       </c>
       <c r="E12" s="1">
         <v>19042</v>
@@ -791,20 +858,28 @@
         <v>18</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13421</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16677</v>
       </c>
       <c r="J12" s="1">
         <v>19042</v>
       </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="Q12" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>47020</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>24011</v>
       </c>
       <c r="E13" s="1">
         <v>23378</v>
@@ -813,16 +888,24 @@
         <v>19</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21026</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11451</v>
       </c>
       <c r="J13" s="1">
         <v>23378</v>
       </c>
+      <c r="Q13" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="3:8" ht="18" x14ac:dyDescent="0.35">
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -837,11 +920,11 @@
       </c>
       <c r="G20" s="1">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
@@ -849,12 +932,12 @@
         <v>17</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:H29" ca="1" si="3">INT(RANDBETWEEN(2,20))</f>
-        <v>2</v>
+        <f t="shared" ref="G21:H29" ca="1" si="5">INT(RANDBETWEEN(2,20))</f>
+        <v>17</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
@@ -862,12 +945,12 @@
         <v>12</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
@@ -875,12 +958,12 @@
         <v>4</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
@@ -888,12 +971,12 @@
         <v>4</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
@@ -901,12 +984,12 @@
         <v>6</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
@@ -914,12 +997,12 @@
         <v>5</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
@@ -928,11 +1011,11 @@
       </c>
       <c r="G27" s="1">
         <f ca="1">INT(RANDBETWEEN(2,20))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
@@ -940,12 +1023,12 @@
         <v>13</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>17</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
@@ -953,131 +1036,24 @@
         <v>14</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D13">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{619CF28C-5904-472A-B655-3FA948FCC09C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E13">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DEF755ED-04AA-42AD-8C6D-4F88B723E468}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I13">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N9">
-    <cfRule type="iconSet" priority="4">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O9">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="5Quarters">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C29">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{619CF28C-5904-472A-B655-3FA948FCC09C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D4:D13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DEF755ED-04AA-42AD-8C6D-4F88B723E468}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFFB628"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E4:E13</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1085,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,317 +1072,317 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
